--- a/tables/crosstab/crosstab_app_time/interested VS outbreak.xlsx
+++ b/tables/crosstab/crosstab_app_time/interested VS outbreak.xlsx
@@ -468,40 +468,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H2">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="I2">
-        <v>10.27</v>
+        <v>10.5</v>
       </c>
       <c r="J2">
-        <v>10.27</v>
+        <v>10.25</v>
       </c>
       <c r="K2">
-        <v>5.87</v>
+        <v>5.75</v>
       </c>
       <c r="L2">
-        <v>5.62</v>
+        <v>5.5</v>
       </c>
       <c r="M2">
-        <v>36.19</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,10 +509,10 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -524,25 +524,25 @@
         <v>64</v>
       </c>
       <c r="G3">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H3">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="I3">
-        <v>19.32</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>9.779999999999999</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>5.62</v>
+        <v>5.75</v>
       </c>
       <c r="L3">
-        <v>15.65</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>63.81</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>17.6</v>
+        <v>17.25</v>
       </c>
       <c r="I4">
-        <v>29.58</v>
+        <v>29.5</v>
       </c>
       <c r="J4">
-        <v>20.05</v>
+        <v>20.25</v>
       </c>
       <c r="K4">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="L4">
-        <v>21.27</v>
+        <v>21.5</v>
       </c>
       <c r="M4">
         <v>100</v>
